--- a/data/input/projects.xlsx
+++ b/data/input/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/bruegel/DATAn/WORKING/TUONE/tuone/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD1FB8D-2804-E244-98E4-F51FE7DBC7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640715E9-B6BB-AD47-BA78-4ACAD4D8C1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>LG Energy Wroclaw</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Freyr Mo i Rana</t>
   </si>
   <si>
-    <t>batteries</t>
-  </si>
-  <si>
     <t>solar</t>
   </si>
   <si>
@@ -204,6 +201,60 @@
   </si>
   <si>
     <t>Heckert Wattcraff Frankfurt</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>Gottingen Gotion High-Tech</t>
+  </si>
+  <si>
+    <t>Bitterfeld-Wolfen Farasis</t>
+  </si>
+  <si>
+    <t>Ludwigsfelde Microvast</t>
+  </si>
+  <si>
+    <t>Dobeln Blackstone Resources</t>
+  </si>
+  <si>
+    <t>Darmstadt Alkasol</t>
+  </si>
+  <si>
+    <t>Willstatt Leclanche</t>
+  </si>
+  <si>
+    <t>Ellwangen Varta</t>
+  </si>
+  <si>
+    <t>Coventry West Midlands</t>
+  </si>
+  <si>
+    <t>Sunderland Envision AESC</t>
+  </si>
+  <si>
+    <t>Swiss Clean Battery</t>
+  </si>
+  <si>
+    <t>Teverola FAAM</t>
+  </si>
+  <si>
+    <t>Impact Clean Power Tech Poland</t>
+  </si>
+  <si>
+    <t>Thurso AMTE UK</t>
+  </si>
+  <si>
+    <t>Vigo CTAG Spain</t>
+  </si>
+  <si>
+    <t>Subotica ElevenEs</t>
+  </si>
+  <si>
+    <t>Xanthi Sunlight</t>
+  </si>
+  <si>
+    <t>Horni Sucha Magna Energy</t>
   </si>
 </sst>
 </file>
@@ -578,24 +629,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +678,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +726,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +758,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +822,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +830,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,6 +876,91 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
